--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationquantity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -150,10 +150,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -808,21 +804,21 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -833,25 +829,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -902,13 +898,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -920,19 +916,19 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -951,16 +947,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -998,19 +994,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1022,21 +1018,21 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1044,10 +1040,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1056,22 +1052,22 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="N4" t="s" s="2">
+      <c r="O4" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="P4" t="s" s="2">
         <v>38</v>
@@ -1120,33 +1116,33 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AK4" t="s" s="2">
+      <c r="AL4" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1157,65 +1153,65 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="O5" t="s" s="2">
+      <c r="P5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="s" s="2">
+      <c r="R5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X5" t="s" s="2">
+      <c r="Y5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="Z5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
       </c>
@@ -1232,33 +1228,33 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1269,31 +1265,31 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>38</v>
@@ -1342,33 +1338,33 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1379,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1388,22 +1384,22 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>38</v>
@@ -1452,33 +1448,33 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1486,10 +1482,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -1498,22 +1494,22 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>38</v>
@@ -1538,11 +1534,11 @@
         <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>38</v>
@@ -1560,25 +1556,25 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
